--- a/RQ1UserTabelle.xlsx
+++ b/RQ1UserTabelle.xlsx
@@ -23,10 +23,10 @@
     <t xml:space="preserve">answers</t>
   </si>
   <si>
-    <t xml:space="preserve">percent Auswirkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">percent Eintrittsw.</t>
+    <t xml:space="preserve">percentAuswirkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentEintrittsw</t>
   </si>
   <si>
     <t xml:space="preserve">Anzahl Auswirkung getroffen</t>
